--- a/Test_Input/TestCase.xlsx
+++ b/Test_Input/TestCase.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>ii</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sheet</t>
   </si>
@@ -46,6 +43,48 @@
   </si>
   <si>
     <t>Run IOS</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Find Element By</t>
+  </si>
+  <si>
+    <t>By value</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Execute time</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Test Input 1</t>
+  </si>
+  <si>
+    <t>Test Input 2</t>
+  </si>
+  <si>
+    <t>Test Input 3</t>
+  </si>
+  <si>
+    <t>TestCase A</t>
+  </si>
+  <si>
+    <t>Result Android</t>
+  </si>
+  <si>
+    <t>Result IOS</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -69,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -133,6 +178,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -440,15 +495,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
         <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +595,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,30 +607,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -524,12 +657,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
